--- a/Automation/Workspace/Odysseus_Product/target/classes/testData/OdysolAirData.xlsx
+++ b/Automation/Workspace/Odysseus_Product/target/classes/testData/OdysolAirData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,44 +115,44 @@
     <t>nyc</t>
   </si>
   <si>
+    <t>Confirm_Email</t>
+  </si>
+  <si>
+    <t>Monish</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Luthra</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Monish Luthra</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Arya</t>
+  </si>
+  <si>
+    <t>miam</t>
+  </si>
+  <si>
     <t>anakum</t>
   </si>
   <si>
-    <t>Ajit123</t>
-  </si>
-  <si>
-    <t>Confirm_Email</t>
-  </si>
-  <si>
-    <t>singa</t>
-  </si>
-  <si>
-    <t>Monish</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Luthra</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Monish Luthra</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Arya</t>
+    <t>Ajit1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -201,6 +209,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
@@ -631,44 +642,44 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
+      <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>12</v>
@@ -680,7 +691,7 @@
         <v>8952634785</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>25</v>
@@ -692,7 +703,7 @@
         <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W2">
         <v>10245</v>
@@ -708,10 +719,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2" display="Ajit@123"/>
-    <hyperlink ref="P2" r:id="rId3"/>
+    <hyperlink ref="P2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Automation/Workspace/Odysseus_Product/target/classes/testData/OdysolAirData.xlsx
+++ b/Automation/Workspace/Odysseus_Product/target/classes/testData/OdysolAirData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>Middlename_of_Adult3</t>
   </si>
   <si>
-    <t>nyc</t>
-  </si>
-  <si>
     <t>Confirm_Email</t>
   </si>
   <si>
@@ -139,13 +136,16 @@
     <t>Arya</t>
   </si>
   <si>
+    <t>anakum</t>
+  </si>
+  <si>
+    <t>Ajit1234</t>
+  </si>
+  <si>
+    <t>las</t>
+  </si>
+  <si>
     <t>miam</t>
-  </si>
-  <si>
-    <t>anakum</t>
-  </si>
-  <si>
-    <t>Ajit1234</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
@@ -643,43 +643,43 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>12</v>
@@ -691,7 +691,7 @@
         <v>8952634785</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>25</v>
@@ -703,7 +703,7 @@
         <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W2">
         <v>10245</v>
